--- a/kassboek.xlsx
+++ b/kassboek.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdbruijn\Desktop\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A25C49EC-6616-4650-8661-D4F2E7A498D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6AF1B4-EAEC-4145-8CE1-09C9CF65BE1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BB3773C6-35BB-4923-B449-EB1D6A4DD172}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{BB3773C6-35BB-4923-B449-EB1D6A4DD172}"/>
   </bookViews>
   <sheets>
     <sheet name="Februari Frank" sheetId="1" r:id="rId1"/>
-    <sheet name="Maart Frank" sheetId="2" r:id="rId2"/>
-    <sheet name="gezamelijk febr" sheetId="3" r:id="rId3"/>
+    <sheet name="gezamelijk febr" sheetId="3" r:id="rId2"/>
+    <sheet name="Maart Frank" sheetId="2" r:id="rId3"/>
     <sheet name="gezamelijk maart" sheetId="4" r:id="rId4"/>
-    <sheet name="april" sheetId="5" r:id="rId5"/>
+    <sheet name="April Gezam" sheetId="7" r:id="rId5"/>
+    <sheet name="template gezam" sheetId="5" r:id="rId6"/>
+    <sheet name="Template Frank" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Februari Frank'!$K$1:$K$30</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="211">
   <si>
     <t>KASBOEK</t>
   </si>
@@ -559,12 +561,6 @@
     <t>Te betalen Frank</t>
   </si>
   <si>
-    <t>dela</t>
-  </si>
-  <si>
-    <t>huis verzeekring</t>
-  </si>
-  <si>
     <t>vakantiegeld</t>
   </si>
   <si>
@@ -581,6 +577,102 @@
   </si>
   <si>
     <t>broodjes lunch</t>
+  </si>
+  <si>
+    <t>teruggaven praxis</t>
+  </si>
+  <si>
+    <t>spaargeld mama</t>
+  </si>
+  <si>
+    <t>Apollo 68</t>
+  </si>
+  <si>
+    <t>lening</t>
+  </si>
+  <si>
+    <t>menzis</t>
+  </si>
+  <si>
+    <t>marktplaats</t>
+  </si>
+  <si>
+    <t>BSOB belasting</t>
+  </si>
+  <si>
+    <t>Gemeente DB</t>
+  </si>
+  <si>
+    <t>Belasting st gestel</t>
+  </si>
+  <si>
+    <t>aflossing creditcard</t>
+  </si>
+  <si>
+    <t>Boerenbond</t>
+  </si>
+  <si>
+    <t>Teide spaarrek</t>
+  </si>
+  <si>
+    <t>afvalstoffendienst</t>
+  </si>
+  <si>
+    <t>Garmundo ( boompjes)</t>
+  </si>
+  <si>
+    <t>Kruidvat</t>
+  </si>
+  <si>
+    <t>restsaldo</t>
+  </si>
+  <si>
+    <t>Kinderbijslag</t>
+  </si>
+  <si>
+    <t>naar rek malou voorgeschoten kleding</t>
+  </si>
+  <si>
+    <t>bakkerij</t>
+  </si>
+  <si>
+    <t>groenteboer</t>
+  </si>
+  <si>
+    <t>kaasboer</t>
+  </si>
+  <si>
+    <t>natuurmonumenten</t>
+  </si>
+  <si>
+    <t>Bol.com</t>
+  </si>
+  <si>
+    <t>Vlagen samen sterk</t>
+  </si>
+  <si>
+    <t>Keurslager</t>
+  </si>
+  <si>
+    <t>FF Swanjee</t>
+  </si>
+  <si>
+    <t>Kleding Hema</t>
+  </si>
+  <si>
+    <t>Vakantieveiling</t>
+  </si>
+  <si>
+    <t>pas ing</t>
+  </si>
+  <si>
+    <t>Bakkerij</t>
+  </si>
+  <si>
+    <t>jumbo</t>
+  </si>
+  <si>
+    <t>van spaarrekening</t>
   </si>
 </sst>
 </file>
@@ -1714,11 +1806,684 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D5006F-9D7C-42D9-AFCC-89FCAAC9E99F}">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="32.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>43862</v>
+      </c>
+      <c r="D3" s="1">
+        <v>368.87</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43862</v>
+      </c>
+      <c r="G3" s="1">
+        <v>26.56</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43864</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>43863</v>
+      </c>
+      <c r="D4" s="1">
+        <v>90</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43863</v>
+      </c>
+      <c r="G4" s="1">
+        <v>72.69</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43872</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>43867</v>
+      </c>
+      <c r="D5" s="1">
+        <v>105</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43864</v>
+      </c>
+      <c r="G5" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2">
+        <v>43887</v>
+      </c>
+      <c r="J5" s="1">
+        <v>150</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>43867</v>
+      </c>
+      <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43864</v>
+      </c>
+      <c r="G6" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="2">
+        <v>43889</v>
+      </c>
+      <c r="J6" s="1">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>43868</v>
+      </c>
+      <c r="D7" s="1">
+        <v>90</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43864</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12.27</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>43868</v>
+      </c>
+      <c r="D8" s="1">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43865</v>
+      </c>
+      <c r="G8" s="1">
+        <v>33.770000000000003</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>43871</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43866</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.86</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>43874</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43866</v>
+      </c>
+      <c r="G10" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>43884</v>
+      </c>
+      <c r="D11" s="1">
+        <v>75</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43867</v>
+      </c>
+      <c r="G11" s="1">
+        <v>119.85</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>43884</v>
+      </c>
+      <c r="D12" s="1">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="2">
+        <v>43868</v>
+      </c>
+      <c r="G12" s="1">
+        <v>25.26</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <v>43887</v>
+      </c>
+      <c r="D13" s="1">
+        <v>475</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43868</v>
+      </c>
+      <c r="G13" s="1">
+        <v>34.99</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F14" s="2">
+        <v>43868</v>
+      </c>
+      <c r="G14" s="1">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F15" s="2">
+        <v>43868</v>
+      </c>
+      <c r="G15" s="1">
+        <v>88.22</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F16" s="2">
+        <v>43869</v>
+      </c>
+      <c r="G16" s="1">
+        <v>41.95</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F17" s="2">
+        <v>43869</v>
+      </c>
+      <c r="G17" s="1">
+        <v>54.45</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F18" s="2">
+        <v>43869</v>
+      </c>
+      <c r="G18" s="1">
+        <v>350</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F19" s="2">
+        <v>43871</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6.73</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F20" s="2">
+        <v>43872</v>
+      </c>
+      <c r="G20" s="1">
+        <v>42.32</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F21" s="2">
+        <v>43873</v>
+      </c>
+      <c r="G21" s="1">
+        <v>33.08</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F22" s="2">
+        <v>43873</v>
+      </c>
+      <c r="G22" s="1">
+        <v>72.61</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F23" s="2">
+        <v>43873</v>
+      </c>
+      <c r="G23" s="1">
+        <v>16.09</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F24" s="2">
+        <v>43874</v>
+      </c>
+      <c r="G24" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F25" s="2">
+        <v>43874</v>
+      </c>
+      <c r="G25" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F26" s="2">
+        <v>43874</v>
+      </c>
+      <c r="G26" s="1">
+        <v>125</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F27" s="2">
+        <v>43875</v>
+      </c>
+      <c r="G27" s="1">
+        <v>244.9</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F28" s="2">
+        <v>43875</v>
+      </c>
+      <c r="G28" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F29" s="2">
+        <v>43876</v>
+      </c>
+      <c r="G29" s="1">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F30" s="2">
+        <v>43885</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F31" s="2">
+        <v>43888</v>
+      </c>
+      <c r="G31" s="1">
+        <v>59.36</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F32" s="2">
+        <v>43889</v>
+      </c>
+      <c r="G32" s="1">
+        <v>14.51</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F33" s="2">
+        <v>43889</v>
+      </c>
+      <c r="G33" s="1">
+        <v>40.39</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F34" s="2">
+        <v>43889</v>
+      </c>
+      <c r="G34" s="1">
+        <v>28.7</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F35" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G35" s="1">
+        <v>11.33</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F36" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F37" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G37" s="1">
+        <v>10</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1">
+        <f>SUM(D3:D38)</f>
+        <v>2512.8000000000002</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="1">
+        <f>SUM(J3:J38)</f>
+        <v>176</v>
+      </c>
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="1">
+        <f>G40+J39+M39</f>
+        <v>1905.8400000000001</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="1">
+        <f>SUM(G3:G39)</f>
+        <v>1729.8400000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1">
+        <f>D39-D40</f>
+        <v>606.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C8D38D-C80F-434D-8227-9B22FDB15F82}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2013,7 +2778,7 @@
         <v>71</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I7" s="2">
         <v>43904</v>
@@ -2060,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I8" s="2">
         <v>43904</v>
@@ -2107,7 +2872,7 @@
         <v>220</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I9" s="2">
         <v>43906</v>
@@ -2147,6 +2912,15 @@
       <c r="E10" s="3" t="s">
         <v>150</v>
       </c>
+      <c r="F10" s="2">
+        <v>43920</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1634.25</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="I10" s="2">
         <v>43906</v>
       </c>
@@ -2185,6 +2959,15 @@
       <c r="E11" s="3" t="s">
         <v>154</v>
       </c>
+      <c r="F11" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G11" s="1">
+        <v>28.36</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="I11" s="2">
         <v>43906</v>
       </c>
@@ -2223,6 +3006,15 @@
       <c r="E12" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="F12" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G12" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="I12" s="2">
         <v>43906</v>
       </c>
@@ -2252,6 +3044,24 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <v>43918</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8.92</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G13" s="1">
+        <v>27.78</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="I13" s="2">
         <v>43906</v>
       </c>
@@ -2277,10 +3087,28 @@
         <v>200</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>43919</v>
+      </c>
+      <c r="D14" s="1">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G14" s="1">
+        <v>11.62</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="I14" s="2">
         <v>43906</v>
       </c>
@@ -2306,7 +3134,7 @@
         <v>150</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,7 +3156,15 @@
       <c r="N15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q15" s="1"/>
+      <c r="O15" s="2">
+        <v>43918</v>
+      </c>
+      <c r="P15" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I16" s="2">
@@ -2349,6 +3185,15 @@
       <c r="N16" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="O16" s="2">
+        <v>43920</v>
+      </c>
+      <c r="P16" s="1">
+        <v>137.5</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="I17" s="2">
@@ -2361,13 +3206,13 @@
         <v>145</v>
       </c>
       <c r="L17" s="2">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="M17" s="1">
         <v>6.9</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.3">
@@ -2380,6 +3225,15 @@
       <c r="K18" s="3" t="s">
         <v>146</v>
       </c>
+      <c r="L18" s="2">
+        <v>43921</v>
+      </c>
+      <c r="M18" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.3">
       <c r="I19" s="2">
@@ -2391,6 +3245,15 @@
       <c r="K19" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="L19" s="2">
+        <v>43921</v>
+      </c>
+      <c r="M19" s="1">
+        <v>200</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
       <c r="I20" s="2">
@@ -2469,8 +3332,27 @@
         <v>156</v>
       </c>
     </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="I27" s="2">
+        <v>43920</v>
+      </c>
+      <c r="J27" s="1">
+        <v>16.47</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="K28" s="3"/>
+      <c r="I28" s="2">
+        <v>43920</v>
+      </c>
+      <c r="J28" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.3">
       <c r="K29" s="3"/>
@@ -2481,14 +3363,14 @@
       </c>
       <c r="D32" s="1">
         <f>SUM(D3:D31)</f>
-        <v>19527.349999999999</v>
+        <v>19566.269999999997</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>143</v>
       </c>
       <c r="G32" s="1">
         <f>SUM(G3:G31)</f>
-        <v>532.12</v>
+        <v>2287.63</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
@@ -2496,21 +3378,21 @@
       </c>
       <c r="J32" s="1">
         <f t="shared" ref="J32" si="0">SUM(J3:J31)</f>
-        <v>14934.519999999997</v>
+        <v>14960.259999999997</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M32" s="1">
         <f>SUM(M3:M30)</f>
-        <v>411.14</v>
+        <v>615.64</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P32" s="1">
         <f>SUM(P3:P31)</f>
-        <v>956.95</v>
+        <v>1144.45</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
@@ -2519,14 +3401,14 @@
       </c>
       <c r="D33" s="1">
         <f>G32+M32+P32+J32</f>
-        <v>16834.729999999996</v>
+        <v>19007.979999999996</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>171</v>
       </c>
       <c r="G33" s="1">
         <f>G32/100*43</f>
-        <v>228.8116</v>
+        <v>983.68090000000007</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
@@ -2535,20 +3417,20 @@
       </c>
       <c r="D34" s="1">
         <f>D32-D33</f>
-        <v>2692.6200000000026</v>
+        <v>558.29000000000087</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>172</v>
       </c>
       <c r="G34" s="1">
         <f>G32/100*57</f>
-        <v>303.30840000000001</v>
+        <v>1303.9491</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G35" s="1">
         <f>G34+G33</f>
-        <v>532.12</v>
+        <v>2287.63</v>
       </c>
     </row>
   </sheetData>
@@ -2560,685 +3442,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D5006F-9D7C-42D9-AFCC-89FCAAC9E99F}">
-  <dimension ref="A1:N41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1"/>
-    <col min="5" max="5" width="32.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1"/>
-    <col min="11" max="11" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="2">
-        <v>43862</v>
-      </c>
-      <c r="D3" s="1">
-        <v>368.87</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="2">
-        <v>43862</v>
-      </c>
-      <c r="G3" s="1">
-        <v>26.56</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="2">
-        <v>43864</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="2">
-        <v>43863</v>
-      </c>
-      <c r="D4" s="1">
-        <v>90</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="2">
-        <v>43863</v>
-      </c>
-      <c r="G4" s="1">
-        <v>72.69</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="2">
-        <v>43872</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="2">
-        <v>43867</v>
-      </c>
-      <c r="D5" s="1">
-        <v>105</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="2">
-        <v>43864</v>
-      </c>
-      <c r="G5" s="1">
-        <v>21.1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2">
-        <v>43887</v>
-      </c>
-      <c r="J5" s="1">
-        <v>150</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="2">
-        <v>43867</v>
-      </c>
-      <c r="D6" s="1">
-        <v>200</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="2">
-        <v>43864</v>
-      </c>
-      <c r="G6" s="1">
-        <v>15.9</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="2">
-        <v>43889</v>
-      </c>
-      <c r="J6" s="1">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
-        <v>43868</v>
-      </c>
-      <c r="D7" s="1">
-        <v>90</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="2">
-        <v>43864</v>
-      </c>
-      <c r="G7" s="1">
-        <v>12.27</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="2">
-        <v>43868</v>
-      </c>
-      <c r="D8" s="1">
-        <v>700</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="2">
-        <v>43865</v>
-      </c>
-      <c r="G8" s="1">
-        <v>33.770000000000003</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="2">
-        <v>43871</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3.93</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="2">
-        <v>43866</v>
-      </c>
-      <c r="G9" s="1">
-        <v>8.86</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C10" s="2">
-        <v>43874</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="2">
-        <v>43866</v>
-      </c>
-      <c r="G10" s="1">
-        <v>22.8</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C11" s="2">
-        <v>43884</v>
-      </c>
-      <c r="D11" s="1">
-        <v>75</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="2">
-        <v>43867</v>
-      </c>
-      <c r="G11" s="1">
-        <v>119.85</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="2">
-        <v>43884</v>
-      </c>
-      <c r="D12" s="1">
-        <v>400</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="2">
-        <v>43868</v>
-      </c>
-      <c r="G12" s="1">
-        <v>25.26</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="2">
-        <v>43887</v>
-      </c>
-      <c r="D13" s="1">
-        <v>475</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="2">
-        <v>43868</v>
-      </c>
-      <c r="G13" s="1">
-        <v>34.99</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F14" s="2">
-        <v>43868</v>
-      </c>
-      <c r="G14" s="1">
-        <v>39.340000000000003</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F15" s="2">
-        <v>43868</v>
-      </c>
-      <c r="G15" s="1">
-        <v>88.22</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F16" s="2">
-        <v>43869</v>
-      </c>
-      <c r="G16" s="1">
-        <v>41.95</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F17" s="2">
-        <v>43869</v>
-      </c>
-      <c r="G17" s="1">
-        <v>54.45</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F18" s="2">
-        <v>43869</v>
-      </c>
-      <c r="G18" s="1">
-        <v>350</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F19" s="2">
-        <v>43871</v>
-      </c>
-      <c r="G19" s="1">
-        <v>6.73</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19"/>
-    </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F20" s="2">
-        <v>43872</v>
-      </c>
-      <c r="G20" s="1">
-        <v>42.32</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20"/>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F21" s="2">
-        <v>43873</v>
-      </c>
-      <c r="G21" s="1">
-        <v>33.08</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F22" s="2">
-        <v>43873</v>
-      </c>
-      <c r="G22" s="1">
-        <v>72.61</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22"/>
-    </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F23" s="2">
-        <v>43873</v>
-      </c>
-      <c r="G23" s="1">
-        <v>16.09</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F24" s="2">
-        <v>43874</v>
-      </c>
-      <c r="G24" s="1">
-        <v>12.75</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F25" s="2">
-        <v>43874</v>
-      </c>
-      <c r="G25" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F26" s="2">
-        <v>43874</v>
-      </c>
-      <c r="G26" s="1">
-        <v>125</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F27" s="2">
-        <v>43875</v>
-      </c>
-      <c r="G27" s="1">
-        <v>244.9</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F28" s="2">
-        <v>43875</v>
-      </c>
-      <c r="G28" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K28"/>
-    </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F29" s="2">
-        <v>43876</v>
-      </c>
-      <c r="G29" s="1">
-        <v>17.010000000000002</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F30" s="2">
-        <v>43885</v>
-      </c>
-      <c r="G30" s="1">
-        <v>7</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F31" s="2">
-        <v>43888</v>
-      </c>
-      <c r="G31" s="1">
-        <v>59.36</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K31"/>
-    </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F32" s="2">
-        <v>43889</v>
-      </c>
-      <c r="G32" s="1">
-        <v>14.51</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32"/>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F33" s="2">
-        <v>43889</v>
-      </c>
-      <c r="G33" s="1">
-        <v>40.39</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K33"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F34" s="2">
-        <v>43889</v>
-      </c>
-      <c r="G34" s="1">
-        <v>28.7</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K34"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F35" s="2">
-        <v>43890</v>
-      </c>
-      <c r="G35" s="1">
-        <v>11.33</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K35"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F36" s="2">
-        <v>43890</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K36"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F37" s="2">
-        <v>43890</v>
-      </c>
-      <c r="G37" s="1">
-        <v>10</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K37"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="K38"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="1">
-        <f>SUM(D3:D38)</f>
-        <v>2512.8000000000002</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J39" s="1">
-        <f>SUM(J3:J38)</f>
-        <v>176</v>
-      </c>
-      <c r="K39"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="1">
-        <f>G40+J39+M39</f>
-        <v>1905.8400000000001</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="1">
-        <f>SUM(G3:G39)</f>
-        <v>1729.8400000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="1">
-        <f>D39-D40</f>
-        <v>606.96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D62C711-B0C9-4EDD-B2A4-9DDB31256837}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3261,7 +3470,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="3"/>
@@ -3429,9 +3638,15 @@
       <c r="H7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="J7" s="1">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
@@ -3733,9 +3948,15 @@
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="3"/>
+      <c r="F26" s="2">
+        <v>43917</v>
+      </c>
+      <c r="G26" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
@@ -3743,9 +3964,15 @@
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="3"/>
+      <c r="F27" s="2">
+        <v>43917</v>
+      </c>
+      <c r="G27" s="1">
+        <v>40.71</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
@@ -3753,9 +3980,15 @@
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="3"/>
+      <c r="F28" s="2">
+        <v>43917</v>
+      </c>
+      <c r="G28" s="1">
+        <v>35.64</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
@@ -3763,9 +3996,15 @@
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="3"/>
+      <c r="F29" s="2">
+        <v>43918</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
@@ -3773,9 +4012,15 @@
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="3"/>
+      <c r="F30" s="2">
+        <v>43919</v>
+      </c>
+      <c r="G30" s="1">
+        <v>34.79</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
@@ -3783,9 +4028,15 @@
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="3"/>
+      <c r="F31" s="2">
+        <v>43920</v>
+      </c>
+      <c r="G31" s="1">
+        <v>31.7</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
@@ -3793,9 +4044,15 @@
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
+      <c r="F32" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G32" s="1">
+        <v>64.430000000000007</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
     </row>
@@ -3803,9 +4060,15 @@
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
+      <c r="F33" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10.48</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
     </row>
@@ -3813,9 +4076,15 @@
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
+      <c r="F34" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G34" s="1">
+        <v>24.48</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
@@ -3876,7 +4145,7 @@
       </c>
       <c r="J39" s="1">
         <f>SUM(J3:J38)</f>
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.3">
@@ -3885,7 +4154,7 @@
       </c>
       <c r="D40" s="1">
         <f>G40+J39+M39</f>
-        <v>1062.93</v>
+        <v>1390.7600000000002</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
@@ -3893,7 +4162,7 @@
       </c>
       <c r="G40" s="1">
         <f>SUM(G3:G39)</f>
-        <v>870.93000000000006</v>
+        <v>1178.7600000000002</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="2"/>
@@ -3906,7 +4175,7 @@
       </c>
       <c r="D41" s="1">
         <f>D39-D40</f>
-        <v>644.03</v>
+        <v>316.19999999999982</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2"/>
@@ -3949,50 +4218,232 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0651E34F-4052-485E-AC99-FBA69634FAC5}">
-  <dimension ref="E8:N26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613AE852-7E6C-452C-A5A3-D174E2753BC8}">
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E8">
-        <v>2550</v>
-      </c>
-      <c r="I8">
-        <v>21.3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E9">
-        <f>606+1251+475</f>
-        <v>2332</v>
-      </c>
-      <c r="I9">
-        <v>89.25</v>
-      </c>
-      <c r="J9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E10">
-        <f>E8-E9</f>
-        <v>218</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D3" s="1">
+        <v>379.8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43922</v>
+      </c>
+      <c r="G3" s="1">
+        <v>75</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43923</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>43934</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43923</v>
+      </c>
+      <c r="G4" s="1">
+        <v>13.04</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43931</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D5" s="1">
+        <v>221.49</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43923</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.35</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2">
+        <v>43923</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.73</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2">
+        <v>43924</v>
+      </c>
+      <c r="G7" s="1">
+        <v>14.74</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2">
+        <v>43925</v>
+      </c>
+      <c r="G8" s="1">
+        <v>33.090000000000003</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2">
+        <v>43927</v>
+      </c>
+      <c r="G9" s="1">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2">
+        <v>43927</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -4000,10 +4451,19 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2">
+        <v>43927</v>
+      </c>
+      <c r="G11" s="1">
+        <v>19.97</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -4011,10 +4471,19 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2">
+        <v>43927</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -4022,10 +4491,19 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2">
+        <v>43928</v>
+      </c>
+      <c r="G13" s="1">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -4033,10 +4511,19 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2">
+        <v>43928</v>
+      </c>
+      <c r="G14" s="1">
+        <v>67</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -4044,10 +4531,19 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2">
+        <v>43929</v>
+      </c>
+      <c r="G15" s="1">
+        <v>73.47</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -4055,123 +4551,1693 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2">
+        <v>43930</v>
+      </c>
+      <c r="G16" s="1">
+        <v>23.45</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
       <c r="L16" s="2"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2">
+        <v>43931</v>
+      </c>
+      <c r="G17" s="1">
+        <v>34.24</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
       <c r="L17" s="2"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2">
+        <v>43931</v>
+      </c>
+      <c r="G18" s="1">
+        <v>13.24</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
       <c r="L18" s="2"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2">
+        <v>43932</v>
+      </c>
+      <c r="G19" s="1">
+        <v>43.81</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
       <c r="L19" s="2"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F20" s="2"/>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2">
+        <v>43932</v>
+      </c>
       <c r="G20" s="1">
-        <v>835</v>
+        <v>4.53</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
       <c r="L20" s="2"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F21" s="2"/>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2">
+        <v>43934</v>
+      </c>
       <c r="G21" s="1">
-        <v>475</v>
+        <v>17.93</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
       <c r="L21" s="2"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F22" s="2"/>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2">
+        <v>43935</v>
+      </c>
       <c r="G22" s="1">
-        <v>116</v>
+        <v>67.73</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1">
-        <v>1108</v>
-      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1">
-        <f>2550-K24</f>
-        <v>586</v>
-      </c>
-    </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="1">
-        <v>150</v>
-      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1">
-        <v>856</v>
-      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="1">
-        <f>G20+G21+G22+G23</f>
-        <v>1576</v>
-      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1">
-        <f>K22+K23</f>
-        <v>1964</v>
-      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="G25" s="1">
-        <f>1980-G24</f>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="H26" s="1"/>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1">
+        <f>SUM(D3:D38)</f>
+        <v>661.29</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="1">
+        <f>SUM(J3:J38)</f>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="1">
+        <f>G40+J39+M39</f>
+        <v>640.41999999999996</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="1">
+        <f>SUM(G3:G39)</f>
+        <v>634.31999999999994</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1">
+        <f>D39-D40</f>
+        <v>20.870000000000005</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0651E34F-4052-485E-AC99-FBA69634FAC5}">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D3" s="1">
+        <f>'gezamelijk maart'!D41</f>
+        <v>316.19999999999982</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D4" s="1">
+        <v>221.49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1">
+        <f>SUM(D3:D38)</f>
+        <v>537.68999999999983</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="1">
+        <f>SUM(J3:J38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="1">
+        <f>G40+J39+M39</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="1">
+        <f>SUM(G3:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1">
+        <f>D39-D40</f>
+        <v>537.68999999999983</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F44" s="2"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71606F4-8E9B-46F1-BD58-E66D119D446C}">
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D3" s="1">
+        <f>+'Februari Frank'!D30</f>
+        <v>1039.1900000000023</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="1">
+        <f>SUM(D3:D31)</f>
+        <v>1039.1900000000023</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="1">
+        <f>SUM(G3:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" ref="J32" si="0">SUM(J3:J31)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="1">
+        <f>SUM(M3:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" s="1">
+        <f>SUM(P3:P31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1">
+        <f>G32+M32+P32+J32</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="1">
+        <f>G32/100*43</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1">
+        <f>D32-D33</f>
+        <v>1039.1900000000023</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="1">
+        <f>G32/100*57</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="1"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1">
+        <f>G34+G33</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="1"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="1"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="1"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kassboek.xlsx
+++ b/kassboek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdbruijn\Desktop\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6AF1B4-EAEC-4145-8CE1-09C9CF65BE1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F506766D-6B19-45F6-B2D9-31F147F17F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{BB3773C6-35BB-4923-B449-EB1D6A4DD172}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{BB3773C6-35BB-4923-B449-EB1D6A4DD172}"/>
   </bookViews>
   <sheets>
     <sheet name="Februari Frank" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,12 @@
     <sheet name="Maart Frank" sheetId="2" r:id="rId3"/>
     <sheet name="gezamelijk maart" sheetId="4" r:id="rId4"/>
     <sheet name="April Gezam" sheetId="7" r:id="rId5"/>
-    <sheet name="template gezam" sheetId="5" r:id="rId6"/>
-    <sheet name="Template Frank" sheetId="6" r:id="rId7"/>
+    <sheet name="April Frank" sheetId="8" r:id="rId6"/>
+    <sheet name="template gezam" sheetId="5" r:id="rId7"/>
+    <sheet name="Template Frank" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'April Gezam'!$I$1:$I$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Februari Frank'!$K$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="254">
   <si>
     <t>KASBOEK</t>
   </si>
@@ -673,6 +675,135 @@
   </si>
   <si>
     <t>van spaarrekening</t>
+  </si>
+  <si>
+    <t>ah naar frank</t>
+  </si>
+  <si>
+    <t>Malou</t>
+  </si>
+  <si>
+    <t>Ghazoo</t>
+  </si>
+  <si>
+    <t>Frank + extra</t>
+  </si>
+  <si>
+    <t>verzekering huis</t>
+  </si>
+  <si>
+    <t>brommer</t>
+  </si>
+  <si>
+    <t>stofzuigerzakken</t>
+  </si>
+  <si>
+    <t>Dak Auto</t>
+  </si>
+  <si>
+    <t>gepind</t>
+  </si>
+  <si>
+    <t>spotify</t>
+  </si>
+  <si>
+    <t>Zwerts boek</t>
+  </si>
+  <si>
+    <t>boek bol.com</t>
+  </si>
+  <si>
+    <t>boek kobo</t>
+  </si>
+  <si>
+    <t>vlees</t>
+  </si>
+  <si>
+    <t>Accu Bangood</t>
+  </si>
+  <si>
+    <t>drinken en broodje</t>
+  </si>
+  <si>
+    <t>koplamp renault</t>
+  </si>
+  <si>
+    <t>anwb terug</t>
+  </si>
+  <si>
+    <t>oliemeulen tb</t>
+  </si>
+  <si>
+    <t>Vrijdag brood</t>
+  </si>
+  <si>
+    <t>Koplamp en WC</t>
+  </si>
+  <si>
+    <t>vliegtuig</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drinken </t>
+  </si>
+  <si>
+    <t>aanbetaling brommer</t>
+  </si>
+  <si>
+    <t>terug brommer</t>
+  </si>
+  <si>
+    <t>accu hobbyking</t>
+  </si>
+  <si>
+    <t>lijm hk</t>
+  </si>
+  <si>
+    <t>prop vliegtuig</t>
+  </si>
+  <si>
+    <t>t mobile</t>
+  </si>
+  <si>
+    <t>drinken ah</t>
+  </si>
+  <si>
+    <t>tosti gvl</t>
+  </si>
+  <si>
+    <t>jumbo boodschap</t>
+  </si>
+  <si>
+    <t>kobo</t>
+  </si>
+  <si>
+    <t>ov</t>
+  </si>
+  <si>
+    <t>credit card</t>
+  </si>
+  <si>
+    <t>Donaldduck</t>
+  </si>
+  <si>
+    <t>malou vaste lasten</t>
+  </si>
+  <si>
+    <t>Vliegen gordijn</t>
+  </si>
+  <si>
+    <t>nl vlag</t>
+  </si>
+  <si>
+    <t>postcode lot</t>
+  </si>
+  <si>
+    <t>Pamgene</t>
+  </si>
+  <si>
+    <t>vaste lasten + extra was over</t>
   </si>
 </sst>
 </file>
@@ -682,7 +813,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +826,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -717,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -727,6 +869,17 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2482,955 +2635,957 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C8D38D-C80F-434D-8227-9B22FDB15F82}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:S38"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1"/>
-    <col min="5" max="5" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="7"/>
+    <col min="3" max="3" width="28.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C3" s="2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="8">
         <v>43891</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="9">
         <f>+'Februari Frank'!D30</f>
         <v>1039.1900000000023</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="8">
         <v>43892</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="9">
         <v>103.23</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="8">
         <v>43896</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="9">
         <v>1570</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="8">
         <v>43893</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="9">
         <v>50</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="8">
         <v>43892</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="9">
         <v>10.25</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C4" s="2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C4" s="8">
         <v>43893</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="9">
         <v>48.66</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="8">
         <v>43892</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="9">
         <v>55.48</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="8">
         <v>43896</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="9">
         <v>25.45</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="8">
         <v>43894</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="9">
         <v>10</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="8">
         <v>43900</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="9">
         <v>2.15</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C5" s="2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C5" s="8">
         <v>43895</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="9">
         <v>1570</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="8">
         <v>43896</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="9">
         <v>34.119999999999997</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="8">
         <v>43901</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="9">
         <v>19.05</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="8">
         <v>43894</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="9">
         <v>6.5</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="8">
         <v>43906</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="9">
         <v>47.36</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C6" s="2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="8">
         <v>210.26</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="9">
         <v>210.26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="8">
         <v>43915</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="9">
         <v>23.29</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="8">
         <v>43902</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="9">
         <v>5837</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="8">
         <v>43894</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="9">
         <v>10</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="8">
         <v>43906</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="9">
         <v>6.99</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="8">
         <v>43901</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="9">
         <v>5837</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="11">
         <v>43917</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="12">
         <v>71</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="8">
         <v>43904</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="9">
         <v>48.45</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="8">
         <v>43894</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="9">
         <v>10</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="8">
         <v>43913</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="9">
         <v>20</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C8" s="2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="8">
         <v>43908</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="9">
         <v>5837</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="8">
         <v>43917</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="9">
         <v>25</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="8">
         <v>43904</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="9">
         <v>11.75</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="8">
         <v>43894</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="9">
         <v>7.5</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="8">
         <v>43914</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="9">
         <v>9.9499999999999993</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C9" s="2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="8">
         <v>43908</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="9">
         <v>1267</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="8">
         <v>43917</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="9">
         <v>220</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="8">
         <v>43906</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="9">
         <v>16.489999999999998</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="8">
         <v>43894</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="9">
         <v>22</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="8">
         <v>43915</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="9">
         <v>14</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="8">
         <v>43913</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="9">
         <v>925</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="8">
         <v>43920</v>
       </c>
-      <c r="G10" s="1">
-        <v>1634.25</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="9">
+        <v>1364.25</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="8">
         <v>43906</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="9">
         <v>21.08</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="8">
         <v>43899</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="9">
         <v>211</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="8">
         <v>43916</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="9">
         <v>5.75</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="8">
         <v>43914</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="9">
         <v>60</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="8">
         <v>43921</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="9">
         <v>28.36</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="8">
         <v>43906</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="9">
         <v>3.75</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="8">
         <v>43902</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="9">
         <v>3.35</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="8">
         <v>43916</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="9">
         <v>15.5</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="8">
         <v>43916</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="9">
         <v>2733.24</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="8">
         <v>43921</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="9">
         <v>53.5</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="8">
         <v>43906</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="9">
         <v>6.99</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="8">
         <v>43902</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="9">
         <v>6.9</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="8">
         <v>43916</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="9">
         <v>475</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C13" s="2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="8">
         <v>43918</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="9">
         <v>8.92</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="8">
         <v>43921</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="9">
         <v>27.78</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="8">
         <v>43906</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="9">
         <v>26</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="8">
         <v>43902</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="9">
         <v>14.25</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="8">
         <v>43917</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="9">
         <v>200</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C14" s="2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="8">
         <v>43919</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="9">
         <v>30</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="8">
         <v>43921</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="9">
         <v>11.62</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="8">
         <v>43906</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="9">
         <v>20.18</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="8">
         <v>43904</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="9">
         <v>6</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="8">
         <v>43917</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="9">
         <v>150</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I15" s="2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I15" s="8">
         <v>43906</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="9">
         <v>15.5</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="8">
         <v>43908</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="9">
         <v>44.74</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="8">
         <v>43918</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="9">
         <v>50</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I16" s="2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I16" s="8">
         <v>43907</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="9">
         <v>8.23</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="8">
         <v>43910</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="9">
         <v>2</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="8">
         <v>43920</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="9">
         <v>137.5</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I17" s="2">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I17" s="8">
         <v>43908</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="9">
         <v>5837</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="8">
         <v>43918</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="9">
         <v>6.9</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I18" s="2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I18" s="8">
         <v>43908</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="9">
         <v>1267.5</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="8">
         <v>43921</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="9">
         <v>4.5</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I19" s="2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I19" s="8">
         <v>43909</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="9">
         <v>10.57</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="8">
         <v>43921</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="9">
         <v>200</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I20" s="2">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I20" s="8">
         <v>43909</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="9">
         <v>10.93</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I21" s="2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I21" s="8">
         <v>43910</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="9">
         <v>16.3</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I22" s="2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I22" s="8">
         <v>43911</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="9">
         <v>5.93</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I23" s="2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I23" s="8">
         <v>43911</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="9">
         <v>22.94</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I24" s="2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I24" s="8">
         <v>43913</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="9">
         <v>29.32</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I25" s="2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I25" s="8">
         <v>43914</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="9">
         <v>97.71</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I26" s="2">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I26" s="8">
         <v>43915</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="9">
         <v>6.4</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I27" s="2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I27" s="8">
         <v>43920</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="9">
         <v>16.47</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I28" s="2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I28" s="8">
         <v>43920</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="9">
         <v>9.27</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="K29" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K29" s="10"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="9">
         <f>SUM(D3:D31)</f>
         <v>19566.269999999997</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="9">
         <f>SUM(G3:G31)</f>
-        <v>2287.63</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
+        <v>2017.6299999999997</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="9">
         <f t="shared" ref="J32" si="0">SUM(J3:J31)</f>
         <v>14960.259999999997</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="9">
         <f>SUM(M3:M30)</f>
         <v>615.64</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="9">
         <f>SUM(P3:P31)</f>
         <v>1144.45</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="9">
         <f>G32+M32+P32+J32</f>
-        <v>19007.979999999996</v>
-      </c>
-      <c r="F33" s="2" t="s">
+        <v>18737.979999999996</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="9">
         <f>G32/100*43</f>
-        <v>983.68090000000007</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C34" s="2" t="s">
+        <v>867.58089999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="9">
         <f>D32-D33</f>
-        <v>558.29000000000087</v>
-      </c>
-      <c r="F34" s="2" t="s">
+        <v>828.29000000000087</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="9">
         <f>G32/100*57</f>
-        <v>1303.9491</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G35" s="1">
+        <v>1150.0491</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="9">
         <f>G34+G33</f>
-        <v>2287.63</v>
+        <v>2017.6299999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3446,7 +3601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D62C711-B0C9-4EDD-B2A4-9DDB31256837}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -4219,19 +4374,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613AE852-7E6C-452C-A5A3-D174E2753BC8}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4359,14 +4515,26 @@
       <c r="H5" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="2">
+        <v>43942</v>
+      </c>
+      <c r="J5" s="1">
+        <v>36</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="2">
+        <v>43939</v>
+      </c>
+      <c r="D6" s="1">
+        <v>90</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="F6" s="2">
         <v>43923</v>
       </c>
@@ -4376,14 +4544,26 @@
       <c r="H6" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="2">
+        <v>43945</v>
+      </c>
+      <c r="J6" s="1">
+        <v>350</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="2">
+        <v>43942</v>
+      </c>
+      <c r="D7" s="1">
+        <v>400</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="F7" s="2">
         <v>43924</v>
       </c>
@@ -4398,9 +4578,15 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="2">
+        <v>43944</v>
+      </c>
+      <c r="D8" s="1">
+        <v>75</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="F8" s="2">
         <v>43925</v>
       </c>
@@ -4415,9 +4601,15 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="2">
+        <v>43945</v>
+      </c>
+      <c r="D9" s="1">
+        <v>675</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="F9" s="2">
         <v>43927</v>
       </c>
@@ -4688,9 +4880,15 @@
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="3"/>
+      <c r="F23" s="2">
+        <v>43939</v>
+      </c>
+      <c r="G23" s="1">
+        <v>110</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
       <c r="L23" s="2"/>
@@ -4700,21 +4898,31 @@
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="3"/>
+      <c r="F24" s="2">
+        <v>43943</v>
+      </c>
+      <c r="G24" s="1">
+        <v>29.15</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="3"/>
+      <c r="F25" s="2">
+        <v>43944</v>
+      </c>
+      <c r="G25" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
@@ -4722,9 +4930,15 @@
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="3"/>
+      <c r="F26" s="2">
+        <v>43944</v>
+      </c>
+      <c r="G26" s="1">
+        <v>18.37</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
@@ -4839,64 +5053,65 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C38" s="2"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="1">
+        <f>SUM(D3:D37)</f>
+        <v>1901.29</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="1"/>
+      <c r="I38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="1">
+        <f>SUM(J3:J37)</f>
+        <v>392.1</v>
+      </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C39" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D39" s="1">
-        <f>SUM(D3:D38)</f>
-        <v>661.29</v>
+        <f>G39+J38+M38</f>
+        <v>1196.6399999999999</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
+      <c r="F39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="1">
+        <f>SUM(G3:G26)</f>
+        <v>804.54</v>
+      </c>
       <c r="H39" s="3"/>
-      <c r="I39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J39" s="1">
-        <f>SUM(J3:J38)</f>
-        <v>6.1</v>
-      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1">
-        <f>G40+J39+M39</f>
-        <v>640.41999999999996</v>
+        <f>D38-D39</f>
+        <v>704.65000000000009</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="1">
-        <f>SUM(G3:G39)</f>
-        <v>634.31999999999994</v>
-      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="3"/>
       <c r="I40" s="2"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="1">
-        <f>D39-D40</f>
-        <v>20.870000000000005</v>
-      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="3"/>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
@@ -4916,23 +5131,1009 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C43" s="2"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+  </sheetData>
+  <autoFilter ref="I1:I43" xr:uid="{27A64F5C-93EE-439E-8218-5A52B3A4E0C2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:K6">
+    <sortCondition ref="I3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9297C8-F5CF-4F2F-AEAF-2B49F073E715}">
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D3" s="1">
+        <v>828.29000000000087</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43922</v>
+      </c>
+      <c r="G3" s="1">
+        <v>65.25</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43922</v>
+      </c>
+      <c r="J3" s="1">
+        <v>24.85</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43923</v>
+      </c>
+      <c r="M3" s="1">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O3" s="2">
+        <v>43922</v>
+      </c>
+      <c r="P3" s="1">
+        <v>10.25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>43924</v>
+      </c>
+      <c r="D4" s="1">
+        <v>24.99</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43952</v>
+      </c>
+      <c r="G4" s="1">
+        <v>55.84</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43930</v>
+      </c>
+      <c r="J4" s="1">
+        <v>126.78</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="2">
+        <v>43924</v>
+      </c>
+      <c r="M4" s="1">
+        <v>24.99</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O4" s="2">
+        <v>43924</v>
+      </c>
+      <c r="P4" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>43960</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2">
+        <v>43935</v>
+      </c>
+      <c r="J5" s="1">
+        <v>179.95</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L5" s="2">
+        <v>43927</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O5" s="2">
+        <v>43931</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>43931</v>
+      </c>
+      <c r="D6" s="1">
+        <v>475</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2">
+        <v>43935</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4.49</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L6" s="2">
+        <v>43928</v>
+      </c>
+      <c r="M6" s="1">
+        <v>72</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O6" s="2">
+        <v>43937</v>
+      </c>
+      <c r="P6" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>43935</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="2">
+        <v>43937</v>
+      </c>
+      <c r="J7" s="1">
+        <v>17.89</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" s="2">
+        <v>43929</v>
+      </c>
+      <c r="M7" s="1">
+        <v>21.33</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O7" s="2">
+        <v>43936</v>
+      </c>
+      <c r="P7" s="1">
+        <v>6.99</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>43939</v>
+      </c>
+      <c r="D8" s="1">
+        <v>110</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2">
+        <v>43941</v>
+      </c>
+      <c r="J8" s="1">
+        <v>114.47</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="2">
+        <v>43929</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O8" s="2">
+        <v>43943</v>
+      </c>
+      <c r="P8" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>43944</v>
+      </c>
+      <c r="D9" s="1">
+        <v>960</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2">
+        <v>43942</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="2">
+        <v>43930</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O9" s="2">
+        <v>43944</v>
+      </c>
+      <c r="P9" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>43945</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2638.68</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2">
+        <v>43942</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8.1630000000000003</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="2">
+        <v>43930</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O10" s="2">
+        <v>43945</v>
+      </c>
+      <c r="P10" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2">
+        <v>43944</v>
+      </c>
+      <c r="J11" s="1">
+        <v>49.95</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L11" s="2">
+        <v>43932</v>
+      </c>
+      <c r="M11" s="1">
+        <v>150</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O11" s="2">
+        <v>43945</v>
+      </c>
+      <c r="P11" s="1">
+        <v>675</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2">
+        <v>43944</v>
+      </c>
+      <c r="J12" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L12" s="2">
+        <v>43934</v>
+      </c>
+      <c r="M12" s="1">
+        <v>140</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2">
+        <v>43936</v>
+      </c>
+      <c r="M13" s="1">
+        <v>50</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2">
+        <v>43936</v>
+      </c>
+      <c r="M14" s="1">
+        <v>29.08</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2">
+        <v>43936</v>
+      </c>
+      <c r="M15" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2">
+        <v>43937</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2">
+        <v>43939</v>
+      </c>
+      <c r="M17" s="1">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2">
+        <v>43941</v>
+      </c>
+      <c r="M18" s="1">
+        <v>10.15</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2">
+        <v>43942</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2">
+        <v>43931</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1">
+        <f>SUM(D3:D30)</f>
+        <v>5102.4600000000009</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="1">
+        <f>SUM(G3:G30)</f>
+        <v>121.09</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" ref="J31" si="0">SUM(J3:J30)</f>
+        <v>547.923</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="1">
+        <f>SUM(M3:M29)</f>
+        <v>570.48</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" s="1">
+        <f>SUM(P3:P30)</f>
+        <v>808.28</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="1">
+        <f>G31+M31+P31+J31</f>
+        <v>2047.7729999999999</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="1">
+        <f>G31/100*43</f>
+        <v>52.068700000000007</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1">
+        <f>D31-D32</f>
+        <v>3054.6870000000008</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="1">
+        <f>G31/100*57</f>
+        <v>69.021300000000011</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1">
+        <f>G33+G32</f>
+        <v>121.09000000000002</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="1"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="1"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="1"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0651E34F-4052-485E-AC99-FBA69634FAC5}">
   <dimension ref="A1:N44"/>
   <sheetViews>
@@ -5514,12 +6715,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71606F4-8E9B-46F1-BD58-E66D119D446C}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
